--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.90430861797028</v>
+        <v>0.276989</v>
       </c>
       <c r="H2">
-        <v>4.90430861797028</v>
+        <v>0.830967</v>
       </c>
       <c r="I2">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="J2">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>57.3554038434676</v>
+        <v>4.389289333333333</v>
       </c>
       <c r="N2">
-        <v>57.3554038434676</v>
+        <v>13.167868</v>
       </c>
       <c r="O2">
-        <v>0.5755895525522757</v>
+        <v>0.03995844413671427</v>
       </c>
       <c r="P2">
-        <v>0.5755895525522757</v>
+        <v>0.03995844413671427</v>
       </c>
       <c r="Q2">
-        <v>281.2886013566838</v>
+        <v>1.215784863150666</v>
       </c>
       <c r="R2">
-        <v>281.2886013566838</v>
+        <v>10.942063768356</v>
       </c>
       <c r="S2">
-        <v>0.1442913812974806</v>
+        <v>0.0005065545993965409</v>
       </c>
       <c r="T2">
-        <v>0.1442913812974806</v>
+        <v>0.0005065545993965407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.90430861797028</v>
+        <v>0.276989</v>
       </c>
       <c r="H3">
-        <v>4.90430861797028</v>
+        <v>0.830967</v>
       </c>
       <c r="I3">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="J3">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.118935437961808</v>
+        <v>57.89762366666667</v>
       </c>
       <c r="N3">
-        <v>0.118935437961808</v>
+        <v>173.692871</v>
       </c>
       <c r="O3">
-        <v>0.001193575337833541</v>
+        <v>0.5270782546422108</v>
       </c>
       <c r="P3">
-        <v>0.001193575337833541</v>
+        <v>0.5270782546422108</v>
       </c>
       <c r="Q3">
-        <v>0.5832960933781646</v>
+        <v>16.03700488180633</v>
       </c>
       <c r="R3">
-        <v>0.5832960933781646</v>
+        <v>144.333043936257</v>
       </c>
       <c r="S3">
-        <v>0.0002992108411539788</v>
+        <v>0.006681789541590185</v>
       </c>
       <c r="T3">
-        <v>0.0002992108411539788</v>
+        <v>0.006681789541590183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.90430861797028</v>
+        <v>0.276989</v>
       </c>
       <c r="H4">
-        <v>4.90430861797028</v>
+        <v>0.830967</v>
       </c>
       <c r="I4">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="J4">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.1720208533969</v>
+        <v>0.129282</v>
       </c>
       <c r="N4">
-        <v>42.1720208533969</v>
+        <v>0.387846</v>
       </c>
       <c r="O4">
-        <v>0.4232168721098907</v>
+        <v>0.001176934848120294</v>
       </c>
       <c r="P4">
-        <v>0.4232168721098907</v>
+        <v>0.001176934848120294</v>
       </c>
       <c r="Q4">
-        <v>206.8246053085368</v>
+        <v>0.035809691898</v>
       </c>
       <c r="R4">
-        <v>206.8246053085368</v>
+        <v>0.322287227082</v>
       </c>
       <c r="S4">
-        <v>0.1060939115283702</v>
+        <v>1.492004439576329E-05</v>
       </c>
       <c r="T4">
-        <v>0.1060939115283702</v>
+        <v>1.492004439576329E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.79729912003313</v>
+        <v>0.276989</v>
       </c>
       <c r="H5">
-        <v>1.79729912003313</v>
+        <v>0.830967</v>
       </c>
       <c r="I5">
-        <v>0.09186922621381004</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="J5">
-        <v>0.09186922621381004</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.3554038434676</v>
+        <v>47.43015733333333</v>
       </c>
       <c r="N5">
-        <v>57.3554038434676</v>
+        <v>142.290472</v>
       </c>
       <c r="O5">
-        <v>0.5755895525522757</v>
+        <v>0.4317863663729547</v>
       </c>
       <c r="P5">
-        <v>0.5755895525522757</v>
+        <v>0.4317863663729548</v>
       </c>
       <c r="Q5">
-        <v>103.0848168570091</v>
+        <v>13.13763184960267</v>
       </c>
       <c r="R5">
-        <v>103.0848168570091</v>
+        <v>118.238686646424</v>
       </c>
       <c r="S5">
-        <v>0.05287896680973072</v>
+        <v>0.005473770927982018</v>
       </c>
       <c r="T5">
-        <v>0.05287896680973072</v>
+        <v>0.005473770927982017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.79729912003313</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H6">
-        <v>1.79729912003313</v>
+        <v>17.481421</v>
       </c>
       <c r="I6">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719354</v>
       </c>
       <c r="J6">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719353</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.118935437961808</v>
+        <v>4.389289333333333</v>
       </c>
       <c r="N6">
-        <v>0.118935437961808</v>
+        <v>13.167868</v>
       </c>
       <c r="O6">
-        <v>0.001193575337833541</v>
+        <v>0.03995844413671427</v>
       </c>
       <c r="P6">
-        <v>0.001193575337833541</v>
+        <v>0.03995844413671427</v>
       </c>
       <c r="Q6">
-        <v>0.2137625579895125</v>
+        <v>25.57700490893644</v>
       </c>
       <c r="R6">
-        <v>0.2137625579895125</v>
+        <v>230.1930441804279</v>
       </c>
       <c r="S6">
-        <v>0.0001096528427146543</v>
+        <v>0.01065661357374875</v>
       </c>
       <c r="T6">
-        <v>0.0001096528427146543</v>
+        <v>0.01065661357374875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.79729912003313</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H7">
-        <v>1.79729912003313</v>
+        <v>17.481421</v>
       </c>
       <c r="I7">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719354</v>
       </c>
       <c r="J7">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.1720208533969</v>
+        <v>57.89762366666667</v>
       </c>
       <c r="N7">
-        <v>42.1720208533969</v>
+        <v>173.692871</v>
       </c>
       <c r="O7">
-        <v>0.4232168721098907</v>
+        <v>0.5270782546422108</v>
       </c>
       <c r="P7">
-        <v>0.4232168721098907</v>
+        <v>0.5270782546422108</v>
       </c>
       <c r="Q7">
-        <v>75.79573596982907</v>
+        <v>337.3775780721879</v>
       </c>
       <c r="R7">
-        <v>75.79573596982907</v>
+        <v>3036.398202649691</v>
       </c>
       <c r="S7">
-        <v>0.03888060656136466</v>
+        <v>0.140567767444357</v>
       </c>
       <c r="T7">
-        <v>0.03888060656136466</v>
+        <v>0.140567767444357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.8620611215799</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H8">
-        <v>12.8620611215799</v>
+        <v>17.481421</v>
       </c>
       <c r="I8">
-        <v>0.6574462701191852</v>
+        <v>0.2666924051719354</v>
       </c>
       <c r="J8">
-        <v>0.6574462701191852</v>
+        <v>0.2666924051719353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.3554038434676</v>
+        <v>0.129282</v>
       </c>
       <c r="N8">
-        <v>57.3554038434676</v>
+        <v>0.387846</v>
       </c>
       <c r="O8">
-        <v>0.5755895525522757</v>
+        <v>0.001176934848120294</v>
       </c>
       <c r="P8">
-        <v>0.5755895525522757</v>
+        <v>0.001176934848120294</v>
       </c>
       <c r="Q8">
-        <v>737.7087098875789</v>
+        <v>0.7533443565739999</v>
       </c>
       <c r="R8">
-        <v>737.7087098875789</v>
+        <v>6.780099209165999</v>
       </c>
       <c r="S8">
-        <v>0.3784192044450644</v>
+        <v>0.0003138795853758678</v>
       </c>
       <c r="T8">
-        <v>0.3784192044450644</v>
+        <v>0.0003138795853758677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.8620611215799</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H9">
-        <v>12.8620611215799</v>
+        <v>17.481421</v>
       </c>
       <c r="I9">
-        <v>0.6574462701191852</v>
+        <v>0.2666924051719354</v>
       </c>
       <c r="J9">
-        <v>0.6574462701191852</v>
+        <v>0.2666924051719353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.118935437961808</v>
+        <v>47.43015733333333</v>
       </c>
       <c r="N9">
-        <v>0.118935437961808</v>
+        <v>142.290472</v>
       </c>
       <c r="O9">
-        <v>0.001193575337833541</v>
+        <v>0.4317863663729547</v>
       </c>
       <c r="P9">
-        <v>0.001193575337833541</v>
+        <v>0.4317863663729548</v>
       </c>
       <c r="Q9">
-        <v>1.529754872586649</v>
+        <v>276.3821828134124</v>
       </c>
       <c r="R9">
-        <v>1.529754872586649</v>
+        <v>2487.439645320711</v>
       </c>
       <c r="S9">
-        <v>0.0007847116539649079</v>
+        <v>0.1151541445684538</v>
       </c>
       <c r="T9">
-        <v>0.0007847116539649079</v>
+        <v>0.1151541445684538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.750881</v>
+      </c>
+      <c r="H10">
+        <v>8.252642999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="J10">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>4.389289333333333</v>
+      </c>
+      <c r="N10">
+        <v>13.167868</v>
+      </c>
+      <c r="O10">
+        <v>0.03995844413671427</v>
+      </c>
+      <c r="P10">
+        <v>0.03995844413671427</v>
+      </c>
+      <c r="Q10">
+        <v>12.07441263056933</v>
+      </c>
+      <c r="R10">
+        <v>108.669713675124</v>
+      </c>
+      <c r="S10">
+        <v>0.005030782532672979</v>
+      </c>
+      <c r="T10">
+        <v>0.005030782532672978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.750881</v>
+      </c>
+      <c r="H11">
+        <v>8.252642999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="J11">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>57.89762366666667</v>
+      </c>
+      <c r="N11">
+        <v>173.692871</v>
+      </c>
+      <c r="O11">
+        <v>0.5270782546422108</v>
+      </c>
+      <c r="P11">
+        <v>0.5270782546422108</v>
+      </c>
+      <c r="Q11">
+        <v>159.2694728897837</v>
+      </c>
+      <c r="R11">
+        <v>1433.425256008053</v>
+      </c>
+      <c r="S11">
+        <v>0.06635934241417221</v>
+      </c>
+      <c r="T11">
+        <v>0.0663593424141722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.750881</v>
+      </c>
+      <c r="H12">
+        <v>8.252642999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="J12">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.129282</v>
+      </c>
+      <c r="N12">
+        <v>0.387846</v>
+      </c>
+      <c r="O12">
+        <v>0.001176934848120294</v>
+      </c>
+      <c r="P12">
+        <v>0.001176934848120294</v>
+      </c>
+      <c r="Q12">
+        <v>0.355639397442</v>
+      </c>
+      <c r="R12">
+        <v>3.200754576978</v>
+      </c>
+      <c r="S12">
+        <v>0.0001481765219826842</v>
+      </c>
+      <c r="T12">
+        <v>0.0001481765219826842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.750881</v>
+      </c>
+      <c r="H13">
+        <v>8.252642999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="J13">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>47.43015733333333</v>
+      </c>
+      <c r="N13">
+        <v>142.290472</v>
+      </c>
+      <c r="O13">
+        <v>0.4317863663729547</v>
+      </c>
+      <c r="P13">
+        <v>0.4317863663729548</v>
+      </c>
+      <c r="Q13">
+        <v>130.4747186352773</v>
+      </c>
+      <c r="R13">
+        <v>1174.272467717496</v>
+      </c>
+      <c r="S13">
+        <v>0.05436205930249251</v>
+      </c>
+      <c r="T13">
+        <v>0.05436205930249251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.994657</v>
+      </c>
+      <c r="H14">
+        <v>38.983971</v>
+      </c>
+      <c r="I14">
+        <v>0.5947301989433799</v>
+      </c>
+      <c r="J14">
+        <v>0.5947301989433798</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>4.389289333333333</v>
+      </c>
+      <c r="N14">
+        <v>13.167868</v>
+      </c>
+      <c r="O14">
+        <v>0.03995844413671427</v>
+      </c>
+      <c r="P14">
+        <v>0.03995844413671427</v>
+      </c>
+      <c r="Q14">
+        <v>57.03730936042533</v>
+      </c>
+      <c r="R14">
+        <v>513.3357842438279</v>
+      </c>
+      <c r="S14">
+        <v>0.02376449343089601</v>
+      </c>
+      <c r="T14">
+        <v>0.02376449343089601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.994657</v>
+      </c>
+      <c r="H15">
+        <v>38.983971</v>
+      </c>
+      <c r="I15">
+        <v>0.5947301989433799</v>
+      </c>
+      <c r="J15">
+        <v>0.5947301989433798</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>57.89762366666667</v>
+      </c>
+      <c r="N15">
+        <v>173.692871</v>
+      </c>
+      <c r="O15">
+        <v>0.5270782546422108</v>
+      </c>
+      <c r="P15">
+        <v>0.5270782546422108</v>
+      </c>
+      <c r="Q15">
+        <v>752.3597606634156</v>
+      </c>
+      <c r="R15">
+        <v>6771.237845970741</v>
+      </c>
+      <c r="S15">
+        <v>0.3134693552420915</v>
+      </c>
+      <c r="T15">
+        <v>0.3134693552420914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>12.8620611215799</v>
-      </c>
-      <c r="H10">
-        <v>12.8620611215799</v>
-      </c>
-      <c r="I10">
-        <v>0.6574462701191852</v>
-      </c>
-      <c r="J10">
-        <v>0.6574462701191852</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>42.1720208533969</v>
-      </c>
-      <c r="N10">
-        <v>42.1720208533969</v>
-      </c>
-      <c r="O10">
-        <v>0.4232168721098907</v>
-      </c>
-      <c r="P10">
-        <v>0.4232168721098907</v>
-      </c>
-      <c r="Q10">
-        <v>542.4191098369331</v>
-      </c>
-      <c r="R10">
-        <v>542.4191098369331</v>
-      </c>
-      <c r="S10">
-        <v>0.2782423540201559</v>
-      </c>
-      <c r="T10">
-        <v>0.2782423540201559</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.994657</v>
+      </c>
+      <c r="H16">
+        <v>38.983971</v>
+      </c>
+      <c r="I16">
+        <v>0.5947301989433799</v>
+      </c>
+      <c r="J16">
+        <v>0.5947301989433798</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.129282</v>
+      </c>
+      <c r="N16">
+        <v>0.387846</v>
+      </c>
+      <c r="O16">
+        <v>0.001176934848120294</v>
+      </c>
+      <c r="P16">
+        <v>0.001176934848120294</v>
+      </c>
+      <c r="Q16">
+        <v>1.679975246274</v>
+      </c>
+      <c r="R16">
+        <v>15.119777216466</v>
+      </c>
+      <c r="S16">
+        <v>0.0006999586963659793</v>
+      </c>
+      <c r="T16">
+        <v>0.0006999586963659791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.994657</v>
+      </c>
+      <c r="H17">
+        <v>38.983971</v>
+      </c>
+      <c r="I17">
+        <v>0.5947301989433799</v>
+      </c>
+      <c r="J17">
+        <v>0.5947301989433798</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>47.43015733333333</v>
+      </c>
+      <c r="N17">
+        <v>142.290472</v>
+      </c>
+      <c r="O17">
+        <v>0.4317863663729547</v>
+      </c>
+      <c r="P17">
+        <v>0.4317863663729548</v>
+      </c>
+      <c r="Q17">
+        <v>616.3386260027013</v>
+      </c>
+      <c r="R17">
+        <v>5547.047634024311</v>
+      </c>
+      <c r="S17">
+        <v>0.2567963915740265</v>
+      </c>
+      <c r="T17">
+        <v>0.2567963915740265</v>
       </c>
     </row>
   </sheetData>
